--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -1596,7 +1596,11 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -1655,7 +1659,11 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
@@ -1694,7 +1702,11 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>*NEW LOCATION</t>
+        </is>
+      </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
@@ -1750,7 +1762,11 @@
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>MONTERREY MARKET, MILWAUKEE-MAIN ST</t>
+        </is>
+      </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
@@ -1801,7 +1817,11 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>7025 W MAIN ST</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -1857,7 +1877,11 @@
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/d9EfKz4wGsrRi6kr7</t>
+        </is>
+      </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
@@ -1968,9 +1992,21 @@
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2024,9 +2060,21 @@
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2071,9 +2119,21 @@
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2102,9 +2162,21 @@
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>@ Store, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2137,9 +2209,21 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2172,9 +2256,21 @@
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>

--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -3442,7 +3442,11 @@
           <t>Amy</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>1st Day</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
@@ -3623,7 +3627,11 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
@@ -3676,7 +3684,11 @@
           <t>Amy</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>2nd Day</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -3781,7 +3793,11 @@
           <t>Michael N</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr"/>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -3599,10 +3599,14 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -3632,7 +3636,11 @@
           <t>7)</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">

--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -808,7 +808,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>KELLEY #42, PECATONICA</t>
+          <t>KELLEY #38, APPLEWOOD MOBIL, LOVES PARK</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -859,7 +859,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>102 9TH ST</t>
+          <t>5542 E RIVERSIDE BLVD</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -910,7 +910,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AJpYhUMPHam</t>
+          <t>https://maps.app.goo.gl/cGFkuuquikuyXnEQ9</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -1002,11 +1002,7 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>*IL Meet is 6:00 am at IL office</t>
-        </is>
-      </c>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -1066,9 +1062,21 @@
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1141,19 +1149,15 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1209,20 +1213,15 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1278,19 +1277,15 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1345,12 +1340,12 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1422,19 +1417,11 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1496,7 +1483,11 @@
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
@@ -1596,11 +1587,7 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -1661,7 +1648,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1704,7 +1691,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1764,7 +1751,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>MONTERREY MARKET, MILWAUKEE-MAIN ST</t>
+          <t>*NEW LOCATION</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1819,7 +1806,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>7025 W MAIN ST</t>
+          <t>MONTERREY MARKET, MILWAUKEE-MAIN ST</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1879,7 +1866,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/d9EfKz4wGsrRi6kr7</t>
+          <t>7025 W MAIN ST</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1937,7 +1924,11 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/d9EfKz4wGsrRi6kr7</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -1992,21 +1983,9 @@
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2062,17 +2041,17 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2121,12 +2100,12 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -2164,17 +2143,17 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>@ Store, work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2211,17 +2190,17 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, work w/ Carlie</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -2258,12 +2237,12 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -2319,9 +2298,21 @@
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>

--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -1345,7 +1345,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1488,7 +1488,11 @@
           <t>7)</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -2473,7 +2473,11 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2520,7 +2524,11 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2563,7 +2571,11 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>CITGO, MADISON - SHERMAN AVE</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2611,7 +2623,11 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>1010 N SHERMAN AVE</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2672,7 +2688,11 @@
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/PmMKFwQoznakKKSf7</t>
+        </is>
+      </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -2733,7 +2753,11 @@
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*IL Meet is 5:45 am at IL office  </t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2793,7 +2817,11 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Lakhbir buying this store.  Do NOT need to collect</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2904,7 +2932,11 @@
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
@@ -2955,8 +2987,16 @@
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -2937,8 +2937,17 @@
           <t>1)</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -2997,7 +3006,12 @@
           <t>Justin Lee</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>

--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -2573,7 +2573,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>CITGO, MADISON - SHERMAN AVE</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2625,7 +2625,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>1010 N SHERMAN AVE</t>
+          <t>CITGO, MADISON - SHERMAN AVE</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2690,7 +2690,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/PmMKFwQoznakKKSf7</t>
+          <t>1010 N SHERMAN AVE</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2755,7 +2755,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:45 am at IL office  </t>
+          <t>https://maps.app.goo.gl/PmMKFwQoznakKKSf7</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2819,7 +2819,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Lakhbir buying this store.  Do NOT need to collect</t>
+          <t xml:space="preserve">*IL Meet is 5:45 am at IL office  </t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2877,7 +2877,11 @@
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Lakhbir buying this store.  Do NOT need to collect</t>
+        </is>
+      </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -2932,22 +2936,9 @@
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -2998,18 +2989,18 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Camry 3, Equip</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3048,9 +3039,22 @@
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>

--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -2447,14 +2447,10 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -3228,15 +3224,10 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -3284,12 +3275,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver, 
 Optima</t>
         </is>
       </c>

--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -3227,7 +3227,11 @@
           <t>Josie</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>@ Store, Until 11:15</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">

--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -3285,7 +3285,7 @@
       <c r="K54" t="inlineStr">
         <is>
           <t>Driver, 
-Optima</t>
+Gray Van</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1420,7 +1420,11 @@
           <t>6)</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>

--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -1992,7 +1992,11 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>COME IN THRU BACK DOOR BY RECEIVING DOCK</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2047,21 +2051,9 @@
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2108,17 +2100,17 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2151,12 +2143,12 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -2198,17 +2190,17 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>@ Store, work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -2245,17 +2237,17 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, work w/ Carlie</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -2308,12 +2300,12 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -2361,9 +2353,21 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2473,11 +2477,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2526,7 +2526,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2625,7 +2625,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>CITGO, MADISON - SHERMAN AVE</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2690,7 +2690,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>1010 N SHERMAN AVE</t>
+          <t>CITGO, MADISON - SHERMAN AVE</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2755,7 +2755,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/PmMKFwQoznakKKSf7</t>
+          <t>1010 N SHERMAN AVE</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2819,7 +2819,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:45 am at IL office  </t>
+          <t>https://maps.app.goo.gl/PmMKFwQoznakKKSf7</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2879,7 +2879,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Lakhbir buying this store.  Do NOT need to collect</t>
+          <t xml:space="preserve">*IL Meet is 5:45 am at IL office  </t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2937,7 +2937,11 @@
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Lakhbir buying this store.  Do NOT need to collect</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -2987,22 +2991,9 @@
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3041,18 +3032,18 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Camry 3, Equip</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -3104,9 +3095,22 @@
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>

--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -1494,7 +1494,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1550,8 +1550,16 @@
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
@@ -1654,11 +1662,7 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
@@ -1699,7 +1703,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1759,7 +1763,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1814,7 +1818,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>MONTERREY MARKET, MILWAUKEE-MAIN ST</t>
+          <t>*NEW LOCATION</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1874,7 +1878,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>7025 W MAIN ST</t>
+          <t>MONTERREY MARKET, MILWAUKEE-MAIN ST</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1934,7 +1938,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/d9EfKz4wGsrRi6kr7</t>
+          <t>7025 W MAIN ST</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -1994,7 +1998,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>COME IN THRU BACK DOOR BY RECEIVING DOCK</t>
+          <t>https://maps.app.goo.gl/d9EfKz4wGsrRi6kr7</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2052,7 +2056,11 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>COME IN THRU BACK DOOR BY RECEIVING DOCK</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2098,21 +2106,9 @@
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2143,17 +2139,17 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2190,12 +2186,12 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -2237,17 +2233,17 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>@ Store, work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -2300,17 +2296,17 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, work w/ Carlie</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2355,12 +2351,12 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -2425,9 +2421,21 @@
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2524,11 +2532,7 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2573,7 +2577,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2625,7 +2629,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2690,7 +2694,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>CITGO, MADISON - SHERMAN AVE</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2755,7 +2759,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>1010 N SHERMAN AVE</t>
+          <t>CITGO, MADISON - SHERMAN AVE</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2819,7 +2823,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/PmMKFwQoznakKKSf7</t>
+          <t>1010 N SHERMAN AVE</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2879,7 +2883,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:45 am at IL office  </t>
+          <t>https://maps.app.goo.gl/PmMKFwQoznakKKSf7</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2939,7 +2943,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Lakhbir buying this store.  Do NOT need to collect</t>
+          <t xml:space="preserve">*IL Meet is 5:45 am at IL office  </t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -2992,7 +2996,11 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Lakhbir buying this store.  Do NOT need to collect</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -3030,22 +3038,9 @@
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3097,18 +3092,18 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Camry 3, Equip</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3159,9 +3154,22 @@
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>

--- a/01-04-26 to 01-10-26 Madison Schedule.xlsx
+++ b/01-04-26 to 01-10-26 Madison Schedule.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -2243,7 +2243,8 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
